--- a/input/mappings/scaling/CAN_scaling_mapping_2017Update.xlsx
+++ b/input/mappings/scaling/CAN_scaling_mapping_2017Update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emcduffie/Documents/GEOS-Chem/CEDS_Emissions/CEDS_v0611/input/mappings/scaling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emcduffie/Documents/GEOS-Chem/CEDS/CEDS_v0611/input/mappings/scaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A1196F-90E8-1841-B8BD-F758ECC43F09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45E3CBF-D6E2-E94F-8B9C-6CB4398C8A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13400" yWindow="8040" windowWidth="25000" windowHeight="14420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="254">
   <si>
     <t>inv_sector</t>
   </si>
@@ -786,6 +786,9 @@
   </si>
   <si>
     <t xml:space="preserve">Metal Mining </t>
+  </si>
+  <si>
+    <t>NOTE: CEDS 6A emissions are zero, so scaling sector 6A = 0 emissions too</t>
   </si>
 </sst>
 </file>
@@ -2054,7 +2057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
       <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
@@ -2961,12 +2964,9 @@
       <c r="A128" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B128" t="s">
-        <v>26</v>
-      </c>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:4">
       <c r="B129" t="s">
         <v>26</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:4">
       <c r="B130" t="s">
         <v>26</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:4">
       <c r="B131" t="s">
         <v>26</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:4">
       <c r="B132" t="s">
         <v>26</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:4">
       <c r="B133" t="s">
         <v>26</v>
       </c>
@@ -3006,47 +3006,56 @@
         <v>64</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:4">
       <c r="A134" s="10" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="B134" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="11" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="B135" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:4">
       <c r="A137" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:4">
       <c r="A138" s="12" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:4">
       <c r="A139" s="12" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:4">
       <c r="A140" s="13" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="B140" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:4">
       <c r="A144" s="10" t="s">
         <v>19</v>
       </c>
@@ -3055,6 +3064,9 @@
       </c>
       <c r="C144" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="D144" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3124,7 +3136,7 @@
         <v>144</v>
       </c>
       <c r="B152" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C152" s="4"/>
     </row>
